--- a/Packet/PacketData/Script.xlsx
+++ b/Packet/PacketData/Script.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -49,10 +49,19 @@
     <t xml:space="preserve">BitField1</t>
   </si>
   <si>
+    <t xml:space="preserve">ビットフィールド１</t>
+  </si>
+  <si>
     <t xml:space="preserve">BitField2</t>
   </si>
   <si>
+    <t xml:space="preserve">ビットフィールド２</t>
+  </si>
+  <si>
     <t xml:space="preserve">BitField3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビットフィールド３</t>
   </si>
 </sst>
 </file>
@@ -162,10 +171,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -209,6 +218,9 @@
       <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -218,7 +230,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -229,7 +244,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
